--- a/data/trans_orig/P32B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P32B-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>3403</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10187</v>
+        <v>9128</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01212253737519013</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003136303023232506</v>
+        <v>0.003148716349165546</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03629047238015769</v>
+        <v>0.03251884139271675</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -765,19 +765,19 @@
         <v>4065</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9316</v>
+        <v>10053</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02180607728329902</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.005284733385368077</v>
+        <v>0.005293576025234116</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04997397577248657</v>
+        <v>0.05392710383816713</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -786,19 +786,19 @@
         <v>7468</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2881</v>
+        <v>3179</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15718</v>
+        <v>14853</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01598694191261004</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006168287134516006</v>
+        <v>0.006804393979688654</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03364821988287924</v>
+        <v>0.03179648909621409</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>277310</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>270526</v>
+        <v>271585</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>279833</v>
+        <v>279829</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9878774626248099</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9637095276198423</v>
+        <v>0.9674811586072832</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9968636969767676</v>
+        <v>0.9968512836508344</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>192</v>
@@ -836,19 +836,19 @@
         <v>182352</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>177101</v>
+        <v>176364</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>185432</v>
+        <v>185430</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.978193922716701</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9500260242275135</v>
+        <v>0.9460728961618329</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9947152666146319</v>
+        <v>0.9947064239747658</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>472</v>
@@ -857,19 +857,19 @@
         <v>459662</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>451412</v>
+        <v>452277</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>464249</v>
+        <v>463951</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9840130580873899</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9663517801171208</v>
+        <v>0.968203510903786</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.993831712865484</v>
+        <v>0.9931956060203114</v>
       </c>
     </row>
     <row r="6">
@@ -964,16 +964,16 @@
         <v>872</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7484</v>
+        <v>7984</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.00561128990670049</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001741510745744846</v>
+        <v>0.001740328003470471</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01494111663449562</v>
+        <v>0.01594042619481495</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6249</v>
+        <v>7113</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.009414835241430369</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0287585202355808</v>
+        <v>0.03273791984933409</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -1003,19 +1003,19 @@
         <v>4856</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1838</v>
+        <v>1937</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>10550</v>
+        <v>11782</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.006762017971950984</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002559078158110363</v>
+        <v>0.002696741985262578</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01469049220336207</v>
+        <v>0.01640560654012462</v>
       </c>
     </row>
     <row r="8">
@@ -1032,7 +1032,7 @@
         <v>498084</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>493411</v>
+        <v>492911</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>500023</v>
@@ -1041,10 +1041,10 @@
         <v>0.9943887100932995</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9850588833655043</v>
+        <v>0.9840595738051847</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9982584892542552</v>
+        <v>0.9982596719965295</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>201</v>
@@ -1053,7 +1053,7 @@
         <v>215230</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>211027</v>
+        <v>210163</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>217276</v>
@@ -1062,7 +1062,7 @@
         <v>0.9905851647585696</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9712414797644193</v>
+        <v>0.9672620801506657</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1074,19 +1074,19 @@
         <v>713315</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>707621</v>
+        <v>706389</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>716333</v>
+        <v>716234</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.993237982028049</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9853095077966382</v>
+        <v>0.9835943934598754</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9974409218418897</v>
+        <v>0.9973032580147374</v>
       </c>
     </row>
     <row r="9">
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6538</v>
+        <v>5867</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004596751591836399</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01627281477882199</v>
+        <v>0.01460197512224306</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6209</v>
+        <v>4914</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.004537643169013447</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0276874671012582</v>
+        <v>0.02190952468380153</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -1223,16 +1223,16 @@
         <v>879</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7756</v>
+        <v>8313</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.004575577476574643</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001403222163973811</v>
+        <v>0.001403541387257035</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0123892789319026</v>
+        <v>0.01327834773845641</v>
       </c>
     </row>
     <row r="11">
@@ -1249,7 +1249,7 @@
         <v>399943</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>395252</v>
+        <v>395923</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>401790</v>
@@ -1258,7 +1258,7 @@
         <v>0.9954032484081636</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.983727185221178</v>
+        <v>0.9853980248777576</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1270,7 +1270,7 @@
         <v>223253</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>218062</v>
+        <v>219357</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>224271</v>
@@ -1279,7 +1279,7 @@
         <v>0.9954623568309866</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9723125328987419</v>
+        <v>0.9780904753161975</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1291,7 +1291,7 @@
         <v>623196</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>618305</v>
+        <v>617748</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>625182</v>
@@ -1300,10 +1300,10 @@
         <v>0.9954244225234253</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9876107210680974</v>
+        <v>0.9867216522615451</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9985967778360262</v>
+        <v>0.9985964586127429</v>
       </c>
     </row>
     <row r="12">
@@ -1411,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>4930</v>
+        <v>6148</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.008074962775880747</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03395087870635192</v>
+        <v>0.0423431180392217</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>5830</v>
+        <v>4760</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.002556166637060224</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0127089101703381</v>
+        <v>0.0103778550700039</v>
       </c>
     </row>
     <row r="14">
@@ -1471,7 +1471,7 @@
         <v>144030</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>140273</v>
+        <v>139055</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>145203</v>
@@ -1480,7 +1480,7 @@
         <v>0.9919250372241193</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9660491212936483</v>
+        <v>0.9576568819607765</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1492,7 +1492,7 @@
         <v>457524</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>452867</v>
+        <v>453937</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>458697</v>
@@ -1501,7 +1501,7 @@
         <v>0.9974438333629397</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9872910898296618</v>
+        <v>0.9896221449299961</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
@@ -1596,19 +1596,19 @@
         <v>6276</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2605</v>
+        <v>2603</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13154</v>
+        <v>12912</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03484774743010944</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01446732587816783</v>
+        <v>0.01445467803556978</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0730379806795234</v>
+        <v>0.07169827018687641</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5575</v>
+        <v>5206</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01365797430832648</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07390998167075025</v>
+        <v>0.06900628706474048</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -1638,19 +1638,19 @@
         <v>7306</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3074</v>
+        <v>3221</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15161</v>
+        <v>15401</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02859218505847223</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01202960641705966</v>
+        <v>0.01260399612448667</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05933121947118326</v>
+        <v>0.06027145383563485</v>
       </c>
     </row>
     <row r="17">
@@ -1667,19 +1667,19 @@
         <v>173816</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>166938</v>
+        <v>167180</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>177487</v>
+        <v>177489</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9651522525698906</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9269620193204766</v>
+        <v>0.9283017298131221</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9855326741218322</v>
+        <v>0.9855453219644302</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>73</v>
@@ -1688,7 +1688,7 @@
         <v>74406</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>69861</v>
+        <v>70230</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>75436</v>
@@ -1697,7 +1697,7 @@
         <v>0.9863420256916735</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9260900183292543</v>
+        <v>0.9309937129352596</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -1709,19 +1709,19 @@
         <v>248221</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>240366</v>
+        <v>240126</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>252453</v>
+        <v>252306</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9714078149415277</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9406687805288166</v>
+        <v>0.9397285461643641</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.98797039358294</v>
+        <v>0.9873960038755122</v>
       </c>
     </row>
     <row r="18">
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5144</v>
+        <v>5071</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01376585255352029</v>
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07033409020098574</v>
+        <v>0.06934434032346866</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5405</v>
+        <v>5525</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01122872022674021</v>
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06028414144176982</v>
+        <v>0.06162313160710679</v>
       </c>
     </row>
     <row r="23">
@@ -2045,7 +2045,7 @@
         <v>72128</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>67991</v>
+        <v>68064</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>73135</v>
@@ -2054,7 +2054,7 @@
         <v>0.9862341474464797</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9296659097990142</v>
+        <v>0.9306556596765312</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -2079,7 +2079,7 @@
         <v>88653</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>84255</v>
+        <v>84135</v>
       </c>
       <c r="T23" s="5" t="n">
         <v>89660</v>
@@ -2088,7 +2088,7 @@
         <v>0.9887712797732597</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.93971585855823</v>
+        <v>0.9383768683928935</v>
       </c>
       <c r="W23" s="6" t="n">
         <v>1</v>
@@ -2183,19 +2183,19 @@
         <v>15343</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>8874</v>
+        <v>9248</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>24825</v>
+        <v>24249</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.008161581761138048</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.004720377779694115</v>
+        <v>0.004919208140667044</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01320536852441692</v>
+        <v>0.01289902679209168</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>9</v>
@@ -2204,19 +2204,19 @@
         <v>9331</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>4325</v>
+        <v>5014</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>17195</v>
+        <v>17449</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01043141985370172</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.004835474993158494</v>
+        <v>0.005605348878450519</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01922248352337151</v>
+        <v>0.01950625053626756</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>24</v>
@@ -2225,19 +2225,19 @@
         <v>24674</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>16298</v>
+        <v>16281</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>35337</v>
+        <v>36046</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.008893411436093571</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.005874340007319813</v>
+        <v>0.005868327643537218</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01273656622893044</v>
+        <v>0.01299220238073082</v>
       </c>
     </row>
     <row r="26">
@@ -2254,19 +2254,19 @@
         <v>1864575</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1855093</v>
+        <v>1855669</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1871044</v>
+        <v>1870670</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.991838418238862</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9867946314755831</v>
+        <v>0.9871009732079083</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9952796222203059</v>
+        <v>0.995080791859333</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>865</v>
@@ -2275,19 +2275,19 @@
         <v>885189</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>877325</v>
+        <v>877071</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>890195</v>
+        <v>889506</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9895685801462982</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9807775164766285</v>
+        <v>0.9804937494637324</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9951645250068415</v>
+        <v>0.9943946511215495</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2695</v>
@@ -2296,19 +2296,19 @@
         <v>2749765</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2739102</v>
+        <v>2738393</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2758141</v>
+        <v>2758158</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9911065885639064</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9872634337710695</v>
+        <v>0.9870077976192693</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9941256599926802</v>
+        <v>0.9941316723564628</v>
       </c>
     </row>
     <row r="27">
@@ -2643,19 +2643,19 @@
         <v>15038</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8636</v>
+        <v>9173</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24078</v>
+        <v>23381</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05360847262236531</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03078644169425142</v>
+        <v>0.03270056439032932</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08583180308856964</v>
+        <v>0.08334657031289588</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -2664,19 +2664,19 @@
         <v>5124</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2009</v>
+        <v>1958</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11263</v>
+        <v>10545</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02792128779443084</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01094922974937439</v>
+        <v>0.01066922796477968</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0613733069659371</v>
+        <v>0.0574581314823018</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>21</v>
@@ -2685,19 +2685,19 @@
         <v>20163</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12549</v>
+        <v>12877</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>29805</v>
+        <v>31056</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04344966916291244</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02704332078038649</v>
+        <v>0.02774951869095165</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06422778474932385</v>
+        <v>0.06692543444498658</v>
       </c>
     </row>
     <row r="5">
@@ -2714,19 +2714,19 @@
         <v>265485</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>256445</v>
+        <v>257142</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>271887</v>
+        <v>271350</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9463915273776347</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.914168196911431</v>
+        <v>0.9166534296871043</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9692135583057486</v>
+        <v>0.9672994356096709</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>173</v>
@@ -2735,19 +2735,19 @@
         <v>178397</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>172258</v>
+        <v>172976</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>181512</v>
+        <v>181563</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9720787122055692</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9386266930340629</v>
+        <v>0.9425418685176982</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9890507702506256</v>
+        <v>0.9893307720352204</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>435</v>
@@ -2756,19 +2756,19 @@
         <v>443881</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>434239</v>
+        <v>432988</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>451495</v>
+        <v>451167</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9565503308370875</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9357722152506753</v>
+        <v>0.9330745655550136</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9729566792196132</v>
+        <v>0.9722504813090485</v>
       </c>
     </row>
     <row r="6">
@@ -2860,19 +2860,19 @@
         <v>14468</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8142</v>
+        <v>8089</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24963</v>
+        <v>25042</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03092732779525344</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01740510706551615</v>
+        <v>0.01729114919749091</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05336347681115756</v>
+        <v>0.05353142443035131</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -2884,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6664</v>
+        <v>6897</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.005318195961672855</v>
@@ -2893,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0312247293554368</v>
+        <v>0.03231592105726509</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>15</v>
@@ -2902,19 +2902,19 @@
         <v>15603</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9030</v>
+        <v>9184</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>27050</v>
+        <v>25269</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02290380359589666</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0132551459180553</v>
+        <v>0.01348075129177749</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03970763593545708</v>
+        <v>0.03709362286710807</v>
       </c>
     </row>
     <row r="8">
@@ -2931,19 +2931,19 @@
         <v>453329</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>442834</v>
+        <v>442755</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>459655</v>
+        <v>459708</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9690726722047466</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9466365231888423</v>
+        <v>0.9464685755696486</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9825948929344839</v>
+        <v>0.9827088508025091</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>201</v>
@@ -2952,7 +2952,7 @@
         <v>212300</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>206771</v>
+        <v>206538</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>213435</v>
@@ -2961,7 +2961,7 @@
         <v>0.9946818040383272</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.968775270644563</v>
+        <v>0.9676840789427349</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -2973,19 +2973,19 @@
         <v>665628</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>654181</v>
+        <v>655962</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>672201</v>
+        <v>672047</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9770961964041034</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9602923640645425</v>
+        <v>0.962906377132892</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9867448540819447</v>
+        <v>0.9865192487082229</v>
       </c>
     </row>
     <row r="9">
@@ -3077,19 +3077,19 @@
         <v>12525</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7094</v>
+        <v>6422</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21502</v>
+        <v>20298</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02925953585472629</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01657328092402206</v>
+        <v>0.01500172060898431</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05023020019400588</v>
+        <v>0.04741904912855295</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -3101,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5022</v>
+        <v>4868</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.003876564463985277</v>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02055210584237411</v>
+        <v>0.01992049846767008</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -3119,19 +3119,19 @@
         <v>13472</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7876</v>
+        <v>7298</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>21774</v>
+        <v>22892</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02003521881681107</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01171360849705362</v>
+        <v>0.01085353801332339</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03238094794450856</v>
+        <v>0.03404422383504558</v>
       </c>
     </row>
     <row r="11">
@@ -3148,19 +3148,19 @@
         <v>415536</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>406559</v>
+        <v>407763</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>420967</v>
+        <v>421639</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9707404641452737</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9497697998059937</v>
+        <v>0.9525809508714471</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9834267190759773</v>
+        <v>0.9849982793910157</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>223</v>
@@ -3169,7 +3169,7 @@
         <v>243415</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>239340</v>
+        <v>239494</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>244362</v>
@@ -3178,7 +3178,7 @@
         <v>0.9961234355360147</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9794478941576266</v>
+        <v>0.9800795015323299</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -3190,19 +3190,19 @@
         <v>658951</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>650649</v>
+        <v>649531</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>664547</v>
+        <v>665125</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.979964781183189</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9676190520554914</v>
+        <v>0.9659557761649543</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9882863915029464</v>
+        <v>0.9891464619866766</v>
       </c>
     </row>
     <row r="12">
@@ -3294,19 +3294,19 @@
         <v>6152</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2157</v>
+        <v>2114</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12954</v>
+        <v>12515</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01560898494229202</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005472763349410011</v>
+        <v>0.005363430716178171</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0328684159654991</v>
+        <v>0.03175399304368429</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -3328,19 +3328,19 @@
         <v>6152</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2127</v>
+        <v>2982</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>13406</v>
+        <v>13307</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01012642056617445</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.003501312311975581</v>
+        <v>0.004908880624503338</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02206778137384331</v>
+        <v>0.02190534857023038</v>
       </c>
     </row>
     <row r="14">
@@ -3357,19 +3357,19 @@
         <v>387956</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>381154</v>
+        <v>381593</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>391951</v>
+        <v>391994</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.984391015057708</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9671315840345007</v>
+        <v>0.9682460069563156</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.99452723665059</v>
+        <v>0.9946365692838217</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>187</v>
@@ -3391,19 +3391,19 @@
         <v>601331</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>594077</v>
+        <v>594176</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>605356</v>
+        <v>604501</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9898735794338256</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9779322186261563</v>
+        <v>0.9780946514297693</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9964986876880243</v>
+        <v>0.9950911193754967</v>
       </c>
     </row>
     <row r="15">
@@ -3495,19 +3495,19 @@
         <v>4020</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11808</v>
+        <v>12270</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01734526371971729</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003516938486088785</v>
+        <v>0.003528689822037753</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05094273040592437</v>
+        <v>0.05293630089001208</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -3529,19 +3529,19 @@
         <v>4020</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>825</v>
+        <v>811</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13858</v>
+        <v>11694</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01168795023434824</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002399340318445641</v>
+        <v>0.002358299815688047</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04028611588465558</v>
+        <v>0.03399529732560319</v>
       </c>
     </row>
     <row r="17">
@@ -3558,19 +3558,19 @@
         <v>227771</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>219983</v>
+        <v>219521</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>230976</v>
+        <v>230973</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9826547362802827</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9490572695940755</v>
+        <v>0.9470636991099877</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9964830615139112</v>
+        <v>0.9964713101779622</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>99</v>
@@ -3592,19 +3592,19 @@
         <v>339964</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>330126</v>
+        <v>332290</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>343159</v>
+        <v>343173</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9883120497656518</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9597138841153438</v>
+        <v>0.9660047026743965</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9976006596815543</v>
+        <v>0.997641700184312</v>
       </c>
     </row>
     <row r="18">
@@ -3696,19 +3696,19 @@
         <v>3965</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>957</v>
+        <v>974</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11488</v>
+        <v>11890</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02567387631375013</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006196312283233281</v>
+        <v>0.006308692773229132</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.074390876923809</v>
+        <v>0.07698982273270687</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -3730,19 +3730,19 @@
         <v>3965</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>973</v>
+        <v>980</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>11348</v>
+        <v>12341</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01870980910392557</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.004590237467577284</v>
+        <v>0.004623004517370156</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05355160013234574</v>
+        <v>0.05823563120582192</v>
       </c>
     </row>
     <row r="20">
@@ -3759,19 +3759,19 @@
         <v>150468</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>142945</v>
+        <v>142543</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>153476</v>
+        <v>153459</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9743261236862498</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.925609123076191</v>
+        <v>0.9230101772672927</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9938036877167667</v>
+        <v>0.9936913072267708</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>51</v>
@@ -3793,19 +3793,19 @@
         <v>207950</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>200567</v>
+        <v>199574</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>210942</v>
+        <v>210935</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9812901908960744</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9464483998676542</v>
+        <v>0.9417643687941789</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9954097625324226</v>
+        <v>0.9953769954826298</v>
       </c>
     </row>
     <row r="21">
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11036</v>
+        <v>11417</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02681588388857092</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1290325133054751</v>
+        <v>0.1334813133625479</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -3934,7 +3934,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>10797</v>
+        <v>11099</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02086993741005003</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09824779832735406</v>
+        <v>0.1009874423997205</v>
       </c>
     </row>
     <row r="23">
@@ -3960,7 +3960,7 @@
         <v>83238</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>74496</v>
+        <v>74115</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>85532</v>
@@ -3969,7 +3969,7 @@
         <v>0.9731841161114291</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8709674866945248</v>
+        <v>0.8665186866374522</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -3994,7 +3994,7 @@
         <v>107606</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>99103</v>
+        <v>98801</v>
       </c>
       <c r="T23" s="5" t="n">
         <v>109900</v>
@@ -4003,7 +4003,7 @@
         <v>0.9791300625899499</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9017522016726462</v>
+        <v>0.8990125576002798</v>
       </c>
       <c r="W23" s="6" t="n">
         <v>1</v>
@@ -4098,19 +4098,19 @@
         <v>58462</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>44597</v>
+        <v>44092</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>76561</v>
+        <v>75541</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0286261508400011</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02183725375963793</v>
+        <v>0.02158982205069808</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03748880031700936</v>
+        <v>0.03698935646267665</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>7</v>
@@ -4119,19 +4119,19 @@
         <v>7207</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3059</v>
+        <v>3103</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>13757</v>
+        <v>14583</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.006871613161946873</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.002916846375051432</v>
+        <v>0.002959165890967254</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01311776030974178</v>
+        <v>0.01390514901540281</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>62</v>
@@ -4140,19 +4140,19 @@
         <v>65668</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>49536</v>
+        <v>51421</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>83372</v>
+        <v>83559</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02124506827624544</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01602602527691192</v>
+        <v>0.0166359273610199</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02697281753136162</v>
+        <v>0.02703321172348632</v>
       </c>
     </row>
     <row r="26">
@@ -4169,19 +4169,19 @@
         <v>1983782</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1965683</v>
+        <v>1966703</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1997647</v>
+        <v>1998152</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9713738491599989</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9625111996829908</v>
+        <v>0.9630106435373234</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9781627462403621</v>
+        <v>0.9784101779493017</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>956</v>
@@ -4190,19 +4190,19 @@
         <v>1041530</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1034980</v>
+        <v>1034154</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1045678</v>
+        <v>1045634</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9931283868380532</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9868822396902583</v>
+        <v>0.9860948509845969</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9970831536249486</v>
+        <v>0.9970408341090327</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2822</v>
@@ -4211,19 +4211,19 @@
         <v>3025312</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3007608</v>
+        <v>3007421</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3041444</v>
+        <v>3039559</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9787549317237546</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9730271824686388</v>
+        <v>0.9729667882765135</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9839739747230881</v>
+        <v>0.9833640726389801</v>
       </c>
     </row>
     <row r="27">
@@ -4558,19 +4558,19 @@
         <v>6312</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2587</v>
+        <v>2879</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12485</v>
+        <v>14406</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0246292932291576</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01009546080321657</v>
+        <v>0.01123285143691341</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04871835894743939</v>
+        <v>0.05621515203682917</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -4579,19 +4579,19 @@
         <v>2992</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9182</v>
+        <v>8066</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01752672795988987</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00548973029209702</v>
+        <v>0.005494270387380769</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05378302466032198</v>
+        <v>0.04724929849817106</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -4600,19 +4600,19 @@
         <v>9304</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4074</v>
+        <v>4395</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16611</v>
+        <v>17403</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02178954914345246</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009541031079253</v>
+        <v>0.01029276298230713</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03890259308844085</v>
+        <v>0.04075714940447166</v>
       </c>
     </row>
     <row r="5">
@@ -4629,19 +4629,19 @@
         <v>249955</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>243782</v>
+        <v>241861</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>253680</v>
+        <v>253388</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9753707067708424</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9512816410525605</v>
+        <v>0.9437848479631694</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9899045391967833</v>
+        <v>0.9887671485630863</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>172</v>
@@ -4650,19 +4650,19 @@
         <v>167724</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>161534</v>
+        <v>162650</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>169779</v>
+        <v>169778</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9824732720401101</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9462169753396779</v>
+        <v>0.9527507015018288</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.994510269707903</v>
+        <v>0.9945057296126192</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>408</v>
@@ -4671,19 +4671,19 @@
         <v>417679</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>410372</v>
+        <v>409580</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>422909</v>
+        <v>422588</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9782104508565476</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9610974069115593</v>
+        <v>0.9592428505955284</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.990458968920747</v>
+        <v>0.9897072370176929</v>
       </c>
     </row>
     <row r="6">
@@ -4775,19 +4775,19 @@
         <v>12220</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7008</v>
+        <v>6515</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20497</v>
+        <v>19953</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03341667908325961</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01916344764703452</v>
+        <v>0.01781514273023087</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05604973804219006</v>
+        <v>0.05456339929416472</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -4796,19 +4796,19 @@
         <v>4784</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1834</v>
+        <v>1887</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10191</v>
+        <v>10593</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02121027403118983</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.008130701327678264</v>
+        <v>0.008366065741354371</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04518339828595981</v>
+        <v>0.04696664128717543</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>17</v>
@@ -4817,19 +4817,19 @@
         <v>17004</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9899</v>
+        <v>10918</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>25913</v>
+        <v>26194</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02876025888316944</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01674322413832429</v>
+        <v>0.01846755150627224</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04382872607042999</v>
+        <v>0.0443041683914303</v>
       </c>
     </row>
     <row r="8">
@@ -4846,19 +4846,19 @@
         <v>353469</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>345192</v>
+        <v>345736</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>358681</v>
+        <v>359174</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9665833209167404</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9439502619578097</v>
+        <v>0.9454366007058352</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9808365523529654</v>
+        <v>0.9821848572697689</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>225</v>
@@ -4867,19 +4867,19 @@
         <v>220753</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>215346</v>
+        <v>214944</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>223703</v>
+        <v>223650</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9787897259688102</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9548166017140386</v>
+        <v>0.9530333587128246</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9918692986723217</v>
+        <v>0.9916339342586457</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>566</v>
@@ -4888,19 +4888,19 @@
         <v>574222</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>565313</v>
+        <v>565032</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>581327</v>
+        <v>580308</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9712397411168305</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9561712739295699</v>
+        <v>0.9556958316085694</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9832567758616757</v>
+        <v>0.9815324484937277</v>
       </c>
     </row>
     <row r="9">
@@ -4992,19 +4992,19 @@
         <v>7783</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3804</v>
+        <v>3761</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14502</v>
+        <v>14934</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01800705705503945</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008801750415850232</v>
+        <v>0.008701861078519496</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03355168538887728</v>
+        <v>0.0345503093366369</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -5016,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6544</v>
+        <v>6097</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.007098764366397507</v>
@@ -5025,7 +5025,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02633142604189995</v>
+        <v>0.02453385723710776</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -5034,19 +5034,19 @@
         <v>9548</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4780</v>
+        <v>4758</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16349</v>
+        <v>16803</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01402472222291787</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007021959990228293</v>
+        <v>0.006988720618681137</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0240147551291787</v>
+        <v>0.02468245738465901</v>
       </c>
     </row>
     <row r="11">
@@ -5063,19 +5063,19 @@
         <v>424459</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>417740</v>
+        <v>417308</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>428438</v>
+        <v>428481</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9819929429449605</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9664483146111227</v>
+        <v>0.9654496906633631</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9911982495841497</v>
+        <v>0.9912981389214804</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>246</v>
@@ -5084,7 +5084,7 @@
         <v>246769</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>241989</v>
+        <v>242436</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>248533</v>
@@ -5093,7 +5093,7 @@
         <v>0.9929012356336024</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9736685739580998</v>
+        <v>0.9754661427628923</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -5105,19 +5105,19 @@
         <v>671227</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>664426</v>
+        <v>663972</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>675995</v>
+        <v>676017</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9859752777770822</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9759852448708213</v>
+        <v>0.9753175426153404</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9929780400097716</v>
+        <v>0.9930112793813188</v>
       </c>
     </row>
     <row r="12">
@@ -5209,19 +5209,19 @@
         <v>9068</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4021</v>
+        <v>4089</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19373</v>
+        <v>18493</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02332621708549095</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01034281259023337</v>
+        <v>0.01051767433201333</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04983126109498962</v>
+        <v>0.04756906457443174</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -5233,7 +5233,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7694</v>
+        <v>9015</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.008323169267090426</v>
@@ -5242,7 +5242,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02889734296527498</v>
+        <v>0.03385693485895001</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -5251,19 +5251,19 @@
         <v>11284</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4858</v>
+        <v>5289</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>20361</v>
+        <v>21232</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01722774201246311</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.007416244558615431</v>
+        <v>0.008074370977857756</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03108467948866098</v>
+        <v>0.03241459573890883</v>
       </c>
     </row>
     <row r="14">
@@ -5280,19 +5280,19 @@
         <v>379696</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>369391</v>
+        <v>370271</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>384743</v>
+        <v>384675</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.976673782914509</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9501687389050105</v>
+        <v>0.9524309354255682</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9896571874097666</v>
+        <v>0.9894823256679867</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>241</v>
@@ -5301,7 +5301,7 @@
         <v>264037</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>258559</v>
+        <v>257238</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>266253</v>
@@ -5310,7 +5310,7 @@
         <v>0.9916768307329096</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9711026570347251</v>
+        <v>0.9661430651410517</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -5322,19 +5322,19 @@
         <v>643734</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>634657</v>
+        <v>633786</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>650160</v>
+        <v>649729</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9827722579875369</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9689153205113388</v>
+        <v>0.9675854042610917</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9925837554413846</v>
+        <v>0.9919256290221423</v>
       </c>
     </row>
     <row r="15">
@@ -5426,19 +5426,19 @@
         <v>5092</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13092</v>
+        <v>13291</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01775727267379243</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003858200206970821</v>
+        <v>0.003839605313355554</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0456581719725182</v>
+        <v>0.04635094896216304</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -5460,19 +5460,19 @@
         <v>5092</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1101</v>
+        <v>1113</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12143</v>
+        <v>12725</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01223184618822654</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002645806227458114</v>
+        <v>0.002673633205615973</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02917061605916544</v>
+        <v>0.03056829190732416</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         <v>281649</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>273649</v>
+        <v>273450</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>285635</v>
+        <v>285640</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9822427273262075</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9543418280274818</v>
+        <v>0.9536490510378369</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9961417997930292</v>
+        <v>0.9961603946866445</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>112</v>
@@ -5523,19 +5523,19 @@
         <v>411176</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>404125</v>
+        <v>403543</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>415167</v>
+        <v>415155</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9877681538117734</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9708293839408348</v>
+        <v>0.9694317080926759</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9973541937725419</v>
+        <v>0.997326366794384</v>
       </c>
     </row>
     <row r="18">
@@ -5630,7 +5630,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4841</v>
+        <v>5245</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.005411734646706492</v>
@@ -5639,7 +5639,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02727318497633411</v>
+        <v>0.02954967514752768</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -5664,7 +5664,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>5345</v>
+        <v>5361</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.003919009011046516</v>
@@ -5673,7 +5673,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02180785489233824</v>
+        <v>0.02187539151239849</v>
       </c>
     </row>
     <row r="20">
@@ -5690,7 +5690,7 @@
         <v>176524</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>172643</v>
+        <v>172239</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>177484</v>
@@ -5699,7 +5699,7 @@
         <v>0.9945882653532935</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.972726815023666</v>
+        <v>0.9704503248524728</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -5724,7 +5724,7 @@
         <v>244127</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>239742</v>
+        <v>239726</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>245087</v>
@@ -5733,7 +5733,7 @@
         <v>0.9960809909889535</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9781921451076617</v>
+        <v>0.9781246084876015</v>
       </c>
       <c r="W20" s="6" t="n">
         <v>1</v>
@@ -5831,7 +5831,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4843</v>
+        <v>4570</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.008373685444262299</v>
@@ -5840,7 +5840,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05074796888492505</v>
+        <v>0.04788588484904593</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -5865,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3809</v>
+        <v>4544</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.006053526879599922</v>
@@ -5874,7 +5874,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02885740309377682</v>
+        <v>0.03442549882677046</v>
       </c>
     </row>
     <row r="23">
@@ -5891,7 +5891,7 @@
         <v>94628</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>90584</v>
+        <v>90857</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>95427</v>
@@ -5900,7 +5900,7 @@
         <v>0.9916263145557377</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9492520311150749</v>
+        <v>0.9521141151509526</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -5925,7 +5925,7 @@
         <v>131202</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>128192</v>
+        <v>127457</v>
       </c>
       <c r="T23" s="5" t="n">
         <v>132001</v>
@@ -5934,7 +5934,7 @@
         <v>0.9939464731204001</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9711425969062235</v>
+        <v>0.9655745011732301</v>
       </c>
       <c r="W23" s="6" t="n">
         <v>1</v>
@@ -6029,19 +6029,19 @@
         <v>42235</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>29877</v>
+        <v>29187</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>57145</v>
+        <v>57686</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02108988532709182</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01491885692777258</v>
+        <v>0.01457452095551534</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02853495599252737</v>
+        <v>0.02880516240130222</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>12</v>
@@ -6050,19 +6050,19 @@
         <v>11756</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>5946</v>
+        <v>6588</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>19867</v>
+        <v>20357</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01026966867166868</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.005194030710306276</v>
+        <v>0.00575511526992899</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01735462291319657</v>
+        <v>0.01778307388496512</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>51</v>
@@ -6071,19 +6071,19 @@
         <v>53991</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>40350</v>
+        <v>40594</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>70093</v>
+        <v>70881</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01715439910276291</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0128204070235271</v>
+        <v>0.01289779516664207</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0222704794329203</v>
+        <v>0.022520919483899</v>
       </c>
     </row>
     <row r="26">
@@ -6100,19 +6100,19 @@
         <v>1960379</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1945469</v>
+        <v>1944928</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1972737</v>
+        <v>1973427</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9789101146729082</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9714650440074727</v>
+        <v>0.9711948375986977</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9850811430722275</v>
+        <v>0.9854254790444847</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1082</v>
@@ -6121,19 +6121,19 @@
         <v>1132989</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1124878</v>
+        <v>1124388</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1138799</v>
+        <v>1138157</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9897303313283313</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9826453770868033</v>
+        <v>0.9822169261150346</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9948059692896937</v>
+        <v>0.9942448847300709</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2938</v>
@@ -6142,19 +6142,19 @@
         <v>3093368</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3077266</v>
+        <v>3076478</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3107009</v>
+        <v>3106765</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.982845600897237</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9777295205670796</v>
+        <v>0.9774790805161011</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9871795929764728</v>
+        <v>0.987102204833358</v>
       </c>
     </row>
     <row r="27">
@@ -6492,16 +6492,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9610</v>
+        <v>9575</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.009944405468207417</v>
+        <v>0.009944405468207414</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05780559983496361</v>
+        <v>0.05759923478262921</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -6510,19 +6510,19 @@
         <v>6178</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1736</v>
+        <v>1638</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16045</v>
+        <v>15775</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.0547499112809215</v>
+        <v>0.05474991128092151</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01538273729620758</v>
+        <v>0.0145161810028907</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1421924310589262</v>
+        <v>0.139795426941162</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -6531,19 +6531,19 @@
         <v>7831</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2283</v>
+        <v>1729</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19155</v>
+        <v>18394</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02806041191044784</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008179994539230793</v>
+        <v>0.006195178119852665</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06863370010941984</v>
+        <v>0.06590935582070591</v>
       </c>
     </row>
     <row r="5">
@@ -6560,7 +6560,7 @@
         <v>164590</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>156633</v>
+        <v>156668</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>166243</v>
@@ -6569,7 +6569,7 @@
         <v>0.9900555945317926</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9421944001650401</v>
+        <v>0.9424007652173709</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -6581,19 +6581,19 @@
         <v>106663</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>96796</v>
+        <v>97066</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>111105</v>
+        <v>111203</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9452500887190785</v>
+        <v>0.9452500887190786</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.857807568941074</v>
+        <v>0.860204573058838</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9846172627037925</v>
+        <v>0.9854838189971094</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>133</v>
@@ -6602,19 +6602,19 @@
         <v>271253</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>259929</v>
+        <v>260690</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>276801</v>
+        <v>277355</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9719395880895523</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.93136629989058</v>
+        <v>0.9340906441792943</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9918200054607692</v>
+        <v>0.9938048218801474</v>
       </c>
     </row>
     <row r="6">
@@ -6706,19 +6706,19 @@
         <v>10915</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4522</v>
+        <v>4154</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24652</v>
+        <v>23161</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.04375455474698294</v>
+        <v>0.04375455474698293</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01812747116757915</v>
+        <v>0.01665037294085487</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09882184866508559</v>
+        <v>0.09284168652322229</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -6730,7 +6730,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4590</v>
+        <v>4924</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.005627431124805013</v>
@@ -6739,7 +6739,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03000217531788303</v>
+        <v>0.03218697742883228</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>7</v>
@@ -6748,19 +6748,19 @@
         <v>11776</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4700</v>
+        <v>5262</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>24535</v>
+        <v>24575</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.02926074204592433</v>
+        <v>0.02926074204592432</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01167796013071905</v>
+        <v>0.01307594497121913</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06096290397346433</v>
+        <v>0.06106151557574057</v>
       </c>
     </row>
     <row r="8">
@@ -6777,19 +6777,19 @@
         <v>238549</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>224812</v>
+        <v>226303</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>244942</v>
+        <v>245310</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9562454452530171</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9011781513349127</v>
+        <v>0.9071583134767777</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9818725288324205</v>
+        <v>0.9833496270591452</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>140</v>
@@ -6798,7 +6798,7 @@
         <v>152130</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>148401</v>
+        <v>148067</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>152991</v>
@@ -6807,7 +6807,7 @@
         <v>0.9943725688751951</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9699978246821138</v>
+        <v>0.967813022571168</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -6819,19 +6819,19 @@
         <v>390679</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>377920</v>
+        <v>377880</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>397755</v>
+        <v>397193</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9707392579540759</v>
+        <v>0.9707392579540756</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.939037096026536</v>
+        <v>0.9389384844242589</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.988322039869281</v>
+        <v>0.9869240550287808</v>
       </c>
     </row>
     <row r="9">
@@ -6923,19 +6923,19 @@
         <v>4586</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10544</v>
+        <v>11436</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01471641092081356</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00369279479792836</v>
+        <v>0.003685938925558739</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03383260498596082</v>
+        <v>0.03669725234259655</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -6947,16 +6947,16 @@
         <v>470</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6581</v>
+        <v>5749</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01234100684332727</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002775837469394574</v>
+        <v>0.00277745603280128</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03890616084905761</v>
+        <v>0.03398802038261876</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -6965,19 +6965,19 @@
         <v>6674</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2820</v>
+        <v>3015</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>12837</v>
+        <v>13685</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01388071277695584</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005866113147111866</v>
+        <v>0.0062710405262571</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02670012560657395</v>
+        <v>0.02846409851564903</v>
       </c>
     </row>
     <row r="11">
@@ -6994,19 +6994,19 @@
         <v>307057</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>301099</v>
+        <v>300207</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>310492</v>
+        <v>310494</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9852835890791865</v>
+        <v>0.9852835890791866</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9661673950140394</v>
+        <v>0.9633027476574032</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9963072052020717</v>
+        <v>0.9963140610744412</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>225</v>
@@ -7015,7 +7015,7 @@
         <v>167062</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>162568</v>
+        <v>163400</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>168679</v>
@@ -7024,10 +7024,10 @@
         <v>0.9876589931566727</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9610938391509424</v>
+        <v>0.9660119796173812</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9972241625306054</v>
+        <v>0.9972225439671988</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>490</v>
@@ -7036,19 +7036,19 @@
         <v>474117</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>467954</v>
+        <v>467106</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>477971</v>
+        <v>477776</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9861192872230441</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.973299874393426</v>
+        <v>0.971535901484351</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9941338868528882</v>
+        <v>0.9937289594737428</v>
       </c>
     </row>
     <row r="12">
@@ -7140,19 +7140,19 @@
         <v>4931</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1725</v>
+        <v>1693</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10942</v>
+        <v>10960</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01393967857985278</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004875311730916918</v>
+        <v>0.004785881739675354</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03093015513306375</v>
+        <v>0.03098307104196078</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -7161,19 +7161,19 @@
         <v>3317</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1128</v>
+        <v>1195</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7036</v>
+        <v>7635</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0156435928318285</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.005318615595644043</v>
+        <v>0.005634255790819976</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03318457025205764</v>
+        <v>0.03601433404192622</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>10</v>
@@ -7182,19 +7182,19 @@
         <v>8248</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4192</v>
+        <v>3987</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>16128</v>
+        <v>14814</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.01457819266172411</v>
+        <v>0.01457819266172412</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.007409813386768401</v>
+        <v>0.00704641072397825</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02850614538904824</v>
+        <v>0.02618474618217634</v>
       </c>
     </row>
     <row r="14">
@@ -7211,19 +7211,19 @@
         <v>348824</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>342813</v>
+        <v>342795</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>352030</v>
+        <v>352062</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9860603214201472</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9690698448669364</v>
+        <v>0.9690169289580393</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9951246882690832</v>
+        <v>0.9952141182603247</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>318</v>
@@ -7232,19 +7232,19 @@
         <v>208695</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>204976</v>
+        <v>204377</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>210884</v>
+        <v>210817</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9843564071681715</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9668154297479424</v>
+        <v>0.9639856659580748</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9946813844043559</v>
+        <v>0.9943657442091802</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>647</v>
@@ -7253,19 +7253,19 @@
         <v>557518</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>549638</v>
+        <v>550952</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>561574</v>
+        <v>561779</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9854218073382757</v>
+        <v>0.9854218073382759</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9714938546109513</v>
+        <v>0.9738152538178235</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9925901866132317</v>
+        <v>0.9929535892760215</v>
       </c>
     </row>
     <row r="15">
@@ -7357,19 +7357,19 @@
         <v>9079</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4923</v>
+        <v>4907</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16218</v>
+        <v>15389</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.03235063560364993</v>
+        <v>0.03235063560364994</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01754136097633966</v>
+        <v>0.01748522926428078</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05778695586406919</v>
+        <v>0.05483577526928996</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -7378,19 +7378,19 @@
         <v>3813</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1708</v>
+        <v>1742</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8093</v>
+        <v>7870</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02577335771387402</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01154269831559731</v>
+        <v>0.01177356409854914</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05469833428189042</v>
+        <v>0.05318860219400166</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>17</v>
@@ -7399,19 +7399,19 @@
         <v>12892</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7799</v>
+        <v>7812</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21043</v>
+        <v>20506</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03008010834561304</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01819683248955693</v>
+        <v>0.01822740598066724</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04909540854164723</v>
+        <v>0.04784294724262357</v>
       </c>
     </row>
     <row r="17">
@@ -7428,19 +7428,19 @@
         <v>271568</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>264429</v>
+        <v>265258</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>275724</v>
+        <v>275740</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.96764936439635</v>
+        <v>0.9676493643963502</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9422130441359307</v>
+        <v>0.94516422473071</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9824586390236606</v>
+        <v>0.9825147707357194</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>234</v>
@@ -7449,19 +7449,19 @@
         <v>144145</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>139865</v>
+        <v>140088</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>146250</v>
+        <v>146216</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9742266422861261</v>
+        <v>0.9742266422861259</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9453016657181099</v>
+        <v>0.9468113978059982</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9884573016844028</v>
+        <v>0.9882264359014509</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>528</v>
@@ -7470,19 +7470,19 @@
         <v>415713</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>407562</v>
+        <v>408099</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>420806</v>
+        <v>420793</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9699198916543869</v>
+        <v>0.9699198916543871</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9509045914583527</v>
+        <v>0.9521570527573763</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9818031675104426</v>
+        <v>0.9817725940193328</v>
       </c>
     </row>
     <row r="18">
@@ -7574,19 +7574,19 @@
         <v>3286</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1225</v>
+        <v>1243</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7609</v>
+        <v>7631</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01586777172569988</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.005917598883851058</v>
+        <v>0.006002355864287242</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03674316315314537</v>
+        <v>0.03684613095688666</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -7598,7 +7598,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>2562</v>
+        <v>3090</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.005745376133619521</v>
@@ -7607,7 +7607,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03222307853091855</v>
+        <v>0.03886972453406042</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -7616,19 +7616,19 @@
         <v>3743</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1531</v>
+        <v>1537</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>8221</v>
+        <v>7820</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01305968146879644</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.005341403251849692</v>
+        <v>0.00536314074401824</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02868570323968356</v>
+        <v>0.02728685697211837</v>
       </c>
     </row>
     <row r="20">
@@ -7645,19 +7645,19 @@
         <v>203806</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>199483</v>
+        <v>199461</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>205867</v>
+        <v>205849</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9841322282743</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9632568368468547</v>
+        <v>0.9631538690431131</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.994082401116149</v>
+        <v>0.9939976441357129</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>149</v>
@@ -7666,7 +7666,7 @@
         <v>79049</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>76944</v>
+        <v>76416</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>79506</v>
@@ -7675,7 +7675,7 @@
         <v>0.9942546238663805</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9677769214690829</v>
+        <v>0.9611302754659393</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -7687,19 +7687,19 @@
         <v>282855</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>278377</v>
+        <v>278778</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>285067</v>
+        <v>285061</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9869403185312038</v>
+        <v>0.9869403185312036</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9713142967603166</v>
+        <v>0.9727131430278817</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9946585967481505</v>
+        <v>0.9946368592559821</v>
       </c>
     </row>
     <row r="21">
@@ -7791,19 +7791,19 @@
         <v>1915</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5616</v>
+        <v>5109</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01744858365371292</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.005047734743280497</v>
+        <v>0.004986626429805048</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05117106138018471</v>
+        <v>0.0465514917946336</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -7815,7 +7815,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2625</v>
+        <v>2245</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01431503182357895</v>
@@ -7824,7 +7824,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08716029031912108</v>
+        <v>0.07454761491199323</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4</v>
@@ -7833,19 +7833,19 @@
         <v>2346</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5567</v>
+        <v>5884</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01677374774784525</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.004096515632418888</v>
+        <v>0.004019086467820966</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03980371582202737</v>
+        <v>0.04207011146116535</v>
       </c>
     </row>
     <row r="23">
@@ -7862,19 +7862,19 @@
         <v>107826</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>104125</v>
+        <v>104632</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>109187</v>
+        <v>109194</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9825514163462871</v>
+        <v>0.982551416346287</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.948828938619815</v>
+        <v>0.9534485082053645</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9949522652567194</v>
+        <v>0.9950133735701949</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>52</v>
@@ -7883,7 +7883,7 @@
         <v>29689</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>27495</v>
+        <v>27875</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>30120</v>
@@ -7892,7 +7892,7 @@
         <v>0.985684968176421</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9128397096808792</v>
+        <v>0.9254523850880068</v>
       </c>
       <c r="P23" s="6" t="n">
         <v>1</v>
@@ -7904,19 +7904,19 @@
         <v>137515</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>134294</v>
+        <v>133977</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>139288</v>
+        <v>139299</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9832262522521545</v>
+        <v>0.9832262522521548</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9601962841779726</v>
+        <v>0.9579298885388347</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.995903484367581</v>
+        <v>0.995980913532179</v>
       </c>
     </row>
     <row r="24">
@@ -8008,19 +8008,19 @@
         <v>36366</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>24348</v>
+        <v>25480</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>50883</v>
+        <v>53709</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02166461686918816</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01450507408791899</v>
+        <v>0.01517951670720425</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03031279102622324</v>
+        <v>0.03199657000424741</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>20</v>
@@ -8029,19 +8029,19 @@
         <v>17144</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>10490</v>
+        <v>10282</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>28799</v>
+        <v>28174</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01895294476522579</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01159679876981761</v>
+        <v>0.01136709757893819</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03183745372938492</v>
+        <v>0.03114575368916072</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>55</v>
@@ -8050,19 +8050,19 @@
         <v>53510</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>40564</v>
+        <v>39432</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>73014</v>
+        <v>69988</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.02071503823280385</v>
+        <v>0.02071503823280386</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01570336073091354</v>
+        <v>0.01526496235001995</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02826555243181266</v>
+        <v>0.02709389389658603</v>
       </c>
     </row>
     <row r="26">
@@ -8079,19 +8079,19 @@
         <v>1642218</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1627701</v>
+        <v>1624875</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1654236</v>
+        <v>1653104</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9783353831308118</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9696872089737768</v>
+        <v>0.9680034299957526</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9854949259120812</v>
+        <v>0.9848204832927958</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1182</v>
@@ -8100,19 +8100,19 @@
         <v>887432</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>875777</v>
+        <v>876402</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>894086</v>
+        <v>894294</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9810470552347742</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.968162546270615</v>
+        <v>0.9688542463108393</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9884032012301823</v>
+        <v>0.9886329024210617</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2732</v>
@@ -8121,19 +8121,19 @@
         <v>2529650</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2510146</v>
+        <v>2513172</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2542596</v>
+        <v>2543728</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9792849617671961</v>
+        <v>0.9792849617671963</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9717344475681872</v>
+        <v>0.9729061061034137</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9842966392690863</v>
+        <v>0.9847350376499799</v>
       </c>
     </row>
     <row r="27">
